--- a/data/evaluation/evaluation_North_Summer_Nectarines.xlsx
+++ b/data/evaluation/evaluation_North_Summer_Nectarines.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2359.749243151306</v>
+        <v>2368.375565976695</v>
       </c>
       <c r="C4" t="n">
-        <v>9961130.219722217</v>
+        <v>9923667.213634346</v>
       </c>
       <c r="D4" t="n">
-        <v>3156.125824443984</v>
+        <v>3150.185266557246</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1623027120268051</v>
+        <v>0.1654532238569786</v>
       </c>
     </row>
     <row r="5">
